--- a/assets/disciplinas/LOQ4086.xlsx
+++ b/assets/disciplinas/LOQ4086.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-6,EQD-6,EQN-7</t>
+    <t>EB-7,EQD-6,EQN-7</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4086.xlsx
+++ b/assets/disciplinas/LOQ4086.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentação e aplicação dos fundamentos teóricos das operações unitárias envolvendo transferência de calor e massa. Os tópicos abordados constituem aplicação prática dos conhecimentos desenvolvidos ao longo da disciplina fenômenos de transporte II e são de grande importância para estudos posteriores de processos químicos industriais.</t>
+    <t>8151869 - Livia Chaguri e Carvalho</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,21 +82,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8151869 - Livia Chaguri e Carvalho</t>
-  </si>
-  <si>
-    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1)Trocadores de Calor;
-2)Trocadores de Calor Tubulares;
-3)Trocadores de calor de Placas;
-4)Sistemas de Troca de Calor com mudança de Fase;
-5)Psicrometria;
-6)Umidificação e Desumidificação;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -113,14 +99,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1)Trocadores de Calor: conceitos gerais e tipos de trocadores de calor;
-2)Trocadores de calor tubulares: cálculos em um trocador de calor bitubular;  Método DTML; Trocadores de calor de casco e tubos; Correlações para determinação dos coeficientes de transferência de calor em trocadores de calor de casco e tubos; Estimativa dos coeficientes de película; Método ε-NUT; Queda de pressão nos trocadores de casco e tubos;
-3)Trocadores de calor de placas: cálculos e comparação com trocadores tubulares;
-4)Sistemas de troca de calor com mudança de fase: evaporadores, condensadores , refervedores e caldeiras; Cristalização;
-5)Psicrometria: conceitos envolvidos e uso da carta psicrométrica;
-6)Operações de umidificação de desumidificação; Torres de resfriamento e Secagem.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -138,33 +116,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
+  </si>
+  <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de 2 provas, P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v. 2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;
-2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;
-3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;
-4)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;
-5)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;
-6)HIMMELBLAU, D. M.; RIGGS, J. B. Engenharia Química: princípios e cálculos. 7ed. Rio de Janeiro: LTC, 846p. 2006;
-7)KERN, D. Q. Processos de transmissão de calor. Rio de Janeiro: Guanabara Dois, 671p. 1982;
-8)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;
-9)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -527,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,34 +628,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -696,30 +672,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -734,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -745,39 +721,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4086.xlsx
+++ b/assets/disciplinas/LOQ4086.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,33 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentação e aplicação dos fundamentos teóricos das operações unitárias envolvendo transferência de calor e massa. Os tópicos abordados constituem aplicação prática dos conhecimentos desenvolvidos ao longo da disciplina fenômenos de transporte II e são de grande importância para estudos posteriores de processos químicos industriais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduction and application of the theoretical fundamentals of unit operations involving heat and mass transfer. The main topics covered in this course include practical application of the knowledge acquired during the attendance of Phenomena of Transportation II course and will have a great importance for further studies about industrial chemical processes.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8151869 - Livia Chaguri e Carvalho</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduction and application of the theoretical fundamentals of unit operations involving heat and mass transfer. The main topics covered in this course include practical application of the knowledge acquired during the attendance of Phenomena of Transportation II course and will have a great importance for further studies about industrial chemical processes.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
   </si>
   <si>
     <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>1)Trocadores de Calor;
+2)Trocadores de Calor Tubulares;
+3)Trocadores de calor de Placas;
+4)Sistemas de Troca de Calor com mudança de Fase;
+5)Psicrometria;
+6)Umidificação e Desumidificação;</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -99,6 +113,14 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1)Trocadores de Calor: conceitos gerais e tipos de trocadores de calor;
+2)Trocadores de calor tubulares: cálculos em um trocador de calor bitubular;  Método DTML; Trocadores de calor de casco e tubos; Correlações para determinação dos coeficientes de transferência de calor em trocadores de calor de casco e tubos; Estimativa dos coeficientes de película; Método ε-NUT; Queda de pressão nos trocadores de casco e tubos;
+3)Trocadores de calor de placas: cálculos e comparação com trocadores tubulares;
+4)Sistemas de troca de calor com mudança de fase: evaporadores, condensadores , refervedores e caldeiras; Cristalização;
+5)Psicrometria: conceitos envolvidos e uso da carta psicrométrica;
+6)Operações de umidificação de desumidificação; Torres de resfriamento e Secagem.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -116,25 +138,33 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
+    <t>Aplicação de 2 provas, P1 e P2.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de 2 provas, P1 e P2.</t>
+    <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
+    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v. 2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;
+2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;
+3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;
+4)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;
+5)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;
+6)HIMMELBLAU, D. M.; RIGGS, J. B. Engenharia Química: princípios e cálculos. 7ed. Rio de Janeiro: LTC, 846p. 2006;
+7)KERN, D. Q. Processos de transmissão de calor. Rio de Janeiro: Guanabara Dois, 671p. 1982;
+8)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;
+9)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -628,40 +658,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -672,30 +696,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -710,7 +734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -721,17 +745,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
